--- a/data/trans_bre/P25_8-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,81</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>4,3</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>30,7%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>28,4%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32,97%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37,65%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 10,23</t>
+          <t>1,52; 10,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 6,97</t>
+          <t>-0,37; 8,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 12,42</t>
+          <t>0,92; 10,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,38</t>
+          <t>2,49; 13,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 66,29</t>
+          <t>-0,04; 8,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 54,69</t>
+          <t>-0,3; 8,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 73,68</t>
+          <t>7,55; 68,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 58,38</t>
+          <t>-2,31; 61,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 69,01</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,29; 70,99</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 55,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 46,11</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>27,69%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56,91%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70,56%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,94</t>
+          <t>-0,3; 10,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 7,41</t>
+          <t>-1,21; 7,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 13,59</t>
+          <t>3,42; 14,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 12,72</t>
+          <t>-3,31; 7,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 80,64</t>
+          <t>-2,78; 12,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 68,7</t>
+          <t>4,1; 21,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,92; 106,84</t>
+          <t>-2,26; 83,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 79,05</t>
+          <t>-8,04; 73,32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19,05; 119,38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-15,63; 51,2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-11,95; 82,12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 143,29</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>10,53</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,53%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,99%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50,09%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>70,8%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 10,57</t>
+          <t>-8,77; 10,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 13,53</t>
+          <t>-1,94; 13,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 19,3</t>
+          <t>-1,12; 19,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-0,21; 20,77</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-40,52; 104,54</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 185,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 136,68</t>
+          <t>-41,29; 87,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-15,46; 186,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 128,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 200,16</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -925,37 +1077,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>30,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25,16%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31,48%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,25</t>
+          <t>1,66; 8,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,17</t>
+          <t>1,31; 6,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 11,11</t>
+          <t>3,87; 10,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,12</t>
+          <t>2,58; 9,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,23; 56,7</t>
+          <t>0,37; 7,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 49,25</t>
+          <t>2,88; 10,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,37; 72,38</t>
+          <t>9,01; 54,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 54,29</t>
+          <t>8,39; 56,43</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 69,65</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 56,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 49,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 57,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_8-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>34,17%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>28,4%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>32,97%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>37,65%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>26,16%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>21,42%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.702331378795625</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.465566275601162</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.080588377502835</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.594743304740234</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.30427945880045</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>4.597070771563655</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3243627285856648</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2325384814386463</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3330391487919882</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3664952681494765</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.2615534418005104</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.2185452417364025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 10,74</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 8,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 10,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 13,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 8,21</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 8,81</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 68,58</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 61,86</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 69,01</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>9,29; 70,99</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 55,45</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 46,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.234413940579641</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.144143820201028</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.8542548367979553</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.186386629104558</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.0381309808764261</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2177452569408044</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.05365606749330248</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.06816436336636519</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.03148943170230527</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.0832532931461709</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.0005726539710612045</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.01004136120557755</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.35927396547243</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.278668438450335</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.1075109410743</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.14960122996522</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>8.205444757530593</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>8.824661198489228</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.667751101974441</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.575756220728346</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.715485691726428</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.7012620619713147</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5545218681614855</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.4650336630503797</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,39</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>32,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27,69%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>56,91%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,03%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>24,58%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>70,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 10,69</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 7,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,42; 14,34</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 7,47</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 12,77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,1; 21,02</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 83,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-8,04; 73,32</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>19,05; 119,38</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-15,63; 51,2</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-11,95; 82,12</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>19,21; 143,29</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.29668513025398</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.716914507217645</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.998590869674568</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.419340298289069</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.883205690171674</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>12.52365092940169</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2788432622751422</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2820726010703202</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5301326511125561</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1348817905164632</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.2458236745325873</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.6860972893722527</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,1</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,53</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>50,09%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>41,34%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>70,8%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.146383308237787</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.39062374875848</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.944023814373109</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.117581812148905</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.779878673003979</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>3.659449708275555</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.07252604096032433</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.0811277300939397</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1570825292570814</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1548959619343064</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1195017530403299</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.1781295695879782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,77; 10,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 13,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 19,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 20,77</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; 87,91</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-15,46; 186,8</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 128,91</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 200,16</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.938362386800083</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.895318454364215</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.76551424147688</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.744457885818458</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.76572688018664</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20.80668774966292</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7576203229179166</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7480006831828331</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.136408014735226</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.5154914067356491</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.8212017520069341</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.392925136078046</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,98</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,15</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,42</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>29,95%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>30,71%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>42,44%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>32,41%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>25,16%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>31,48%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.5740521921636876</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.550403777098362</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.742368044671274</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11.54299569233427</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.03437867301145732</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4917847390666583</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.5172544067976825</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.7771861062956912</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 8,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 6,86</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 10,7</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 9,65</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 7,61</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 10,34</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>9,01; 54,61</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>8,39; 56,43</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>20,13; 69,65</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>11,63; 56,13</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 49,89</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>13,01; 57,81</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.24813087290514</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.257702985826759</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5984411238846828</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.9216821134720949</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.451802616549231</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1595101645932826</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.003071145693118171</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.01449604426352256</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.9088830344574</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.62507985518286</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.7473645029764</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>22.12497968636503</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.9735396441899592</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.85362980895878</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.433623260553486</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.147873567018922</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.609053788830394</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.863307140701458</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.286323746811091</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.171084596802862</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.346067985331106</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>6.411257108433863</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2775114041063078</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2805615886840624</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.427190691623982</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3268008342675434</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.2515995846176886</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.3149050678851019</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.101876558955811</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.7511679911218475</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.924059443171721</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.741687926019792</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3748492554273164</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>2.911318088440869</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.05858938543822917</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.04651686951524686</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.2092950103618294</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.1193171335762241</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.02631848804483327</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.1290373224891436</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.6775518180632</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.558182084688728</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.87414113770992</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.740935829608171</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.607212741130254</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>10.31347755000435</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5196115349984198</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5261081327701946</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7156253547571385</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5765931490775722</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.4988911728616293</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.5684798133385002</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
